--- a/Backup_Data.xlsx
+++ b/Backup_Data.xlsx
@@ -468,7 +468,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>': 4, '</t>
+          <t>{'completed': False, '_id': '620b50f2957bd000171c3600', 'description': 'reading book', 'owner': '620b50ed957bd000171c35fb', 'createdAt': '2022-02-15T07:06:26.820Z', 'updatedAt': '2022-02-15T07:06:26.820Z', '__v': 0}</t>
         </is>
       </c>
     </row>
